--- a/Dec2018(new).xlsx
+++ b/Dec2018(new).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="28-30Dec" sheetId="1" r:id="rId1"/>
@@ -268,25 +268,54 @@
     <t>Ironing</t>
   </si>
   <si>
-    <t xml:space="preserve">- Prepare Cell Grp songs
+    <t>2nd Jan 2019</t>
+  </si>
+  <si>
+    <t>Dinner Plans</t>
+  </si>
+  <si>
+    <t>- Turkey</t>
+  </si>
+  <si>
+    <t>- Stuffings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Leftover Assam Pedas .. Add more of the assam pedas and add cabbage to it </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Prepare Cell Grp songs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 - Prepare Dinner
 - Ironing
-- Udemy </t>
-  </si>
-  <si>
-    <t>2nd Jan 2019</t>
-  </si>
-  <si>
-    <t>Dinner Plans</t>
-  </si>
-  <si>
-    <t>- Turkey</t>
-  </si>
-  <si>
-    <t>- Stuffings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Leftover Assam Pedas .. Add more of the assam pedas and add cabbage to it </t>
+- Udemy 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Updated Cell Funds</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1517,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1622,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="14" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="14" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1602,7 +1631,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="11"/>
@@ -2072,6 +2101,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2146,35 +2176,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
